--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
@@ -120,12 +131,21 @@
   </si>
   <si>
     <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>Note on Heat Pumps</t>
+  </si>
+  <si>
+    <t>The "electricity" fuel type represents heat pumps.</t>
+  </si>
+  <si>
+    <t>This can be changed by altering dist-heat/EoCtUH.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -300,6 +320,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,12 +564,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,9 +642,24 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -600,12 +667,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -878,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>

--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\Variáveis Energy Innovation\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401BDBAE-4AA4-43D4-9769-C9FF7CEDF3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoHPbF" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>International Energy Agency</t>
-  </si>
-  <si>
-    <t>CHP/DHC Country Scorecard: United States</t>
-  </si>
-  <si>
-    <t>http://www.iea.org/publications/insights/insightpublications/US_CountryScorecard_FINAL.pdf</t>
-  </si>
-  <si>
-    <t>Page 37, Table 2, Sub-table 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Note:</t>
   </si>
@@ -61,31 +45,7 @@
     <t>have data specifically on fuel use fractions of district heating systems.</t>
   </si>
   <si>
-    <t>Natural gas</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Biogas/Biomass</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Fuel input for additional CHP capacity (GWh)</t>
-  </si>
-  <si>
     <t>We don't have fuel fractions used by the total installed base, so we use</t>
-  </si>
-  <si>
-    <t>Sum of Years Above</t>
-  </si>
-  <si>
-    <t>Fraction by Fuel</t>
   </si>
   <si>
     <t>electricity</t>
@@ -104,9 +64,6 @@
   </si>
   <si>
     <t>heat</t>
-  </si>
-  <si>
-    <t>Reallocating "Other" into modeled fuel categories</t>
   </si>
   <si>
     <t>the fuel fractions from the available years' newly installed capacities.</t>
@@ -133,23 +90,17 @@
     <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>Note on Heat Pumps</t>
+    <t>Note on the Brazilian model:</t>
   </si>
   <si>
-    <t>The "electricity" fuel type represents heat pumps.</t>
-  </si>
-  <si>
-    <t>This can be changed by altering dist-heat/EoCtUH.</t>
+    <t>District heat variables are not applicable to Brazil, given its climatic conditions. Thus, we set it to zero.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +116,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,38 +140,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -245,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,514 +492,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2014</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>3</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2">
-        <v>2006</v>
-      </c>
-      <c r="D2">
-        <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>2009</v>
-      </c>
-      <c r="F2">
-        <v>2020</v>
-      </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
-      <c r="H2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>55622.2</v>
-      </c>
-      <c r="C3">
-        <v>7957.9</v>
-      </c>
-      <c r="D3">
-        <v>5249.4</v>
-      </c>
-      <c r="E3">
-        <v>5271</v>
-      </c>
-      <c r="F3">
-        <v>14497.7</v>
-      </c>
-      <c r="G3">
-        <v>5215.6000000000004</v>
-      </c>
-      <c r="H3">
-        <v>8544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>8003.3</v>
-      </c>
-      <c r="C4">
-        <v>876</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3551.7</v>
-      </c>
-      <c r="F4">
-        <v>1513.1</v>
-      </c>
-      <c r="G4">
-        <v>995.4</v>
-      </c>
-      <c r="H4">
-        <v>12343.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>4050.7</v>
-      </c>
-      <c r="C5">
-        <v>456.6</v>
-      </c>
-      <c r="D5">
-        <v>18.5</v>
-      </c>
-      <c r="E5">
-        <v>568.20000000000005</v>
-      </c>
-      <c r="F5">
-        <v>115.9</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>199.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1090.2</v>
-      </c>
-      <c r="C6">
-        <v>2533.9</v>
-      </c>
-      <c r="D6">
-        <v>859.4</v>
-      </c>
-      <c r="E6">
-        <v>10628.4</v>
-      </c>
-      <c r="F6">
-        <v>1133.5</v>
-      </c>
-      <c r="G6">
-        <v>4829.3999999999996</v>
-      </c>
-      <c r="H6">
-        <v>4055.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>7030.9</v>
-      </c>
-      <c r="C7">
-        <v>4116.6000000000004</v>
-      </c>
-      <c r="D7">
-        <v>6967.4</v>
-      </c>
-      <c r="E7">
-        <v>4280.5</v>
-      </c>
-      <c r="F7">
-        <v>468.1</v>
-      </c>
-      <c r="G7">
-        <v>10068.299999999999</v>
-      </c>
-      <c r="H7">
-        <v>2641.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <f>SUM(B3:H3)</f>
-        <v>102357.8</v>
-      </c>
-      <c r="C10" s="8">
-        <f>B10/SUM(B$10:B$14)</f>
-        <v>0.52282852429039151</v>
-      </c>
-      <c r="D10" s="8">
-        <f>C10+C$14*(C10/SUM(C$10:C$13))</f>
-        <v>0.63892242256425869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
-        <v>27282.9</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ref="C11:C14" si="1">B11/SUM(B$10:B$14)</f>
-        <v>0.13935702355230695</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11:D13" si="2">C11+C$14*(C11/SUM(C$10:C$13))</f>
-        <v>0.17030120384160674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>5432.5999999999995</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="1"/>
-        <v>2.7748918412275184E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="2"/>
-        <v>3.3910556428748871E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>25130.5</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.12836288225889658</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.15686581716538556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>35573.200000000004</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.18170265148612963</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="9">
+    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="2">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="2">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="2">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="2">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="2">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="2">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="2">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="2">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="2">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="2">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="2">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="2">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="2">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="2">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="2">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="2">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="2">
         <v>2049</v>
       </c>
       <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1218,605 +838,601 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10">
-        <f>Data!D11</f>
-        <v>0.17030120384160674</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R11" si="1">$B3</f>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10">
-        <f>Data!D10</f>
-        <v>0.63892242256425869</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10">
-        <f>Data!D13</f>
-        <v>0.15686581716538556</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="10">
-        <f>Data!D12</f>
-        <v>3.3910556428748871E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1962,9 +1578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2110,9 +1726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2258,9 +1874,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2406,9 +2022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
